--- a/docs/idea目录总结.xlsx
+++ b/docs/idea目录总结.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Idea汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t xml:space="preserve">给那些有资源（如技术、人脉关系），就是缺少资金做这么一个平台，它们可以将它们的作品抑或是想法发布到这个上面，然后普通用户抑或是投资人，都可以给这个项目或者ideal注入资金。然后看事成之后 ，或者项目ideal实现之后，看他们的注入资金给予酬劳或者什么的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个平台是类似于github呢还是类似私于新闻发布一样，只是把他们创意啥的说明发布出去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +102,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -210,46 +224,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,248 +575,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="17.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="14.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="K4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="3">
         <v>41907</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="K5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
+  <mergeCells count="24">
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K5:O5"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="B1:I3"/>
     <mergeCell ref="C4:G4"/>
@@ -807,6 +831,18 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/idea目录总结.xlsx
+++ b/docs/idea目录总结.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dummy_for_Comparison1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Idea汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>这个平台是类似于github呢还是类似私于新闻发布一样，只是把他们创意啥的说明发布出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idea汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,9 +260,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,15 +301,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -578,7 +617,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K4" sqref="K4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,36 +630,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -629,13 +668,13 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
@@ -645,13 +684,13 @@
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -660,13 +699,13 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
@@ -676,146 +715,146 @@
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -845,6 +884,288 @@
     <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>41907</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B1:I3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
